--- a/biology/Botanique/Abdominea/Abdominea.xlsx
+++ b/biology/Botanique/Abdominea/Abdominea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abdominea est un genre d'orchidées d'Asie du Sud-Est ne comptant qu'une seule espèce Abdominea minimiflora.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom d'Abdominea vient de la ressemblance du labelle à l'abdomen d'un insecte.
 </t>
@@ -542,7 +556,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement, selon Kew Gardens 'World Checklist' (en date du 16 juillet 2017), le genre Abdominea est incorporé au genre Robiquetia Gaudich. (1829).L'espèce précitée se nomme à présent Robiquetia minimiflora.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonymes pour l'espèce</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Abdominea micrantha J.J.Sm. 1914
 Gastrochilus minimiflorus (Hook.f.) Kuntze 1891
@@ -607,7 +625,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante épiphyte ou lithophyte des forêts tropicales.
 Feuilles elliptiques.
@@ -640,7 +660,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Péninsule malaise, Java, Thaïlande et Philippines. Entre 300 et 1 000 mètres d'altitude.
 </t>
@@ -671,7 +693,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
